--- a/trunk/docs/Desarrollo/Reportes/Reportes Posibles.xlsx
+++ b/trunk/docs/Desarrollo/Reportes/Reportes Posibles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Reportes</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Proyecto</t>
   </si>
   <si>
-    <t>Cantidad de Horas por Tarea</t>
-  </si>
-  <si>
     <t>Horas por Usuario</t>
   </si>
   <si>
@@ -112,6 +109,24 @@
   </si>
   <si>
     <t>Torta</t>
+  </si>
+  <si>
+    <t>Cantidad de Horas por Tarea Primaria</t>
+  </si>
+  <si>
+    <t>Listo?</t>
+  </si>
+  <si>
+    <t>1 Proyecto</t>
+  </si>
+  <si>
+    <t>% de ocupacion de Usuarios en proyectos</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>1 Usuario</t>
   </si>
 </sst>
 </file>
@@ -127,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +155,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -373,53 +394,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,262 +838,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="22" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>28</v>
-      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
+      <c r="B6" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:J1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
